--- a/results/mp/logistic/corona/confidence/210/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,6 +40,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
@@ -49,39 +52,45 @@
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -94,82 +103,79 @@
     <t>free</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -527,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,10 +541,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,13 +602,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8421052631578947</v>
+        <v>0.8013698630136986</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -638,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -646,13 +652,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8378378378378378</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -664,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K4">
         <v>0.9152542372881356</v>
@@ -696,13 +702,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8055555555555556</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,19 +720,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -738,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,13 +752,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.797945205479452</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +802,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7647058823529411</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.8485639686684073</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>325</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>325</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,13 +852,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.582010582010582</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C8">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.8275862068965517</v>
+        <v>0.8125</v>
       </c>
       <c r="L8">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="M8">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -896,13 +902,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.576271186440678</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -914,19 +920,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.8055555555555556</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -938,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -946,13 +952,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5387596899224806</v>
+        <v>0.5465116279069767</v>
       </c>
       <c r="C10">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D10">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -964,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.795774647887324</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L10">
-        <v>113</v>
+        <v>308</v>
       </c>
       <c r="M10">
-        <v>113</v>
+        <v>308</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -988,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>29</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -996,38 +1002,38 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5098039215686274</v>
+        <v>0.5100671140939598</v>
       </c>
       <c r="C11">
+        <v>76</v>
+      </c>
+      <c r="D11">
+        <v>76</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>73</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11">
+        <v>0.7878787878787878</v>
+      </c>
+      <c r="L11">
         <v>26</v>
       </c>
-      <c r="D11">
+      <c r="M11">
         <v>26</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>25</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11">
-        <v>0.7890625</v>
-      </c>
-      <c r="L11">
-        <v>101</v>
-      </c>
-      <c r="M11">
-        <v>101</v>
-      </c>
       <c r="N11">
         <v>1</v>
       </c>
@@ -1038,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1046,13 +1052,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4765100671140939</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C12">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1064,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.7875</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L12">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="M12">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1088,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1096,13 +1102,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1114,19 +1120,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.7830188679245284</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1138,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1146,13 +1152,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2658730158730159</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C14">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1164,19 +1170,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>185</v>
+        <v>64</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.7804878048780488</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L14">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1188,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1196,13 +1202,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1662198391420912</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="C15">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D15">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1214,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>311</v>
+        <v>188</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.75</v>
+        <v>0.76875</v>
       </c>
       <c r="L15">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="M15">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1238,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1246,63 +1252,87 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.00935785737334624</v>
+        <v>0.160857908847185</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D16">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="E16">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>3070</v>
+        <v>313</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16">
+        <v>0.7682926829268293</v>
+      </c>
+      <c r="L16">
+        <v>63</v>
+      </c>
+      <c r="M16">
+        <v>63</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.08666666666666667</v>
+      </c>
+      <c r="C17">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>274</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17">
+        <v>0.7659574468085106</v>
+      </c>
+      <c r="L17">
         <v>36</v>
       </c>
-      <c r="K16">
-        <v>0.75</v>
-      </c>
-      <c r="L16">
-        <v>30</v>
-      </c>
-      <c r="M16">
-        <v>30</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="10:17">
-      <c r="J17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17">
-        <v>0.7441860465116279</v>
-      </c>
-      <c r="L17">
-        <v>32</v>
-      </c>
       <c r="M17">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1317,70 +1347,118 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="10:17">
+    <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.01290322580645161</v>
+      </c>
+      <c r="C18">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>47</v>
+      </c>
+      <c r="E18">
+        <v>0.15</v>
+      </c>
+      <c r="F18">
+        <v>0.85</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>3060</v>
+      </c>
       <c r="J18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18">
+        <v>0.746031746031746</v>
+      </c>
+      <c r="L18">
+        <v>47</v>
+      </c>
+      <c r="M18">
+        <v>47</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.01220084467386204</v>
+      </c>
+      <c r="C19">
+        <v>26</v>
+      </c>
+      <c r="D19">
         <v>38</v>
       </c>
-      <c r="K18">
-        <v>0.7301587301587301</v>
-      </c>
-      <c r="L18">
-        <v>46</v>
-      </c>
-      <c r="M18">
-        <v>46</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="10:17">
+      <c r="E19">
+        <v>0.32</v>
+      </c>
+      <c r="F19">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>2105</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K19">
+        <v>0.7441860465116279</v>
+      </c>
+      <c r="L19">
+        <v>32</v>
+      </c>
+      <c r="M19">
+        <v>32</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20">
         <v>0.7291666666666666</v>
       </c>
-      <c r="L19">
+      <c r="L20">
         <v>35</v>
       </c>
-      <c r="M19">
+      <c r="M20">
         <v>35</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="10:17">
-      <c r="J20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20">
-        <v>0.723404255319149</v>
-      </c>
-      <c r="L20">
-        <v>34</v>
-      </c>
-      <c r="M20">
-        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1395,18 +1473,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="10:17">
+    <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>0.6617647058823529</v>
+        <v>0.7</v>
       </c>
       <c r="L21">
-        <v>225</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>225</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1418,267 +1496,241 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="10:17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22">
+        <v>0.6294117647058823</v>
+      </c>
+      <c r="L22">
+        <v>214</v>
+      </c>
+      <c r="M22">
+        <v>214</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23">
+        <v>0.62</v>
+      </c>
+      <c r="L23">
+        <v>31</v>
+      </c>
+      <c r="M23">
+        <v>31</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24">
+        <v>0.6067796610169491</v>
+      </c>
+      <c r="L24">
+        <v>179</v>
+      </c>
+      <c r="M24">
+        <v>179</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25">
+        <v>0.606694560669456</v>
+      </c>
+      <c r="L25">
+        <v>145</v>
+      </c>
+      <c r="M25">
+        <v>145</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="L26">
+        <v>56</v>
+      </c>
+      <c r="M26">
+        <v>56</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="L27">
+        <v>35</v>
+      </c>
+      <c r="M27">
+        <v>35</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28">
+        <v>0.5285714285714286</v>
+      </c>
+      <c r="L28">
+        <v>37</v>
+      </c>
+      <c r="M28">
+        <v>37</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29">
+        <v>0.5280898876404494</v>
+      </c>
+      <c r="L29">
+        <v>47</v>
+      </c>
+      <c r="M29">
+        <v>47</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>42</v>
       </c>
-      <c r="K22">
-        <v>0.6101694915254238</v>
-      </c>
-      <c r="L22">
-        <v>180</v>
-      </c>
-      <c r="M22">
-        <v>180</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="10:17">
-      <c r="J23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23">
-        <v>0.6063829787234043</v>
-      </c>
-      <c r="L23">
-        <v>57</v>
-      </c>
-      <c r="M23">
-        <v>57</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="10:17">
-      <c r="J24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24">
-        <v>0.5857142857142857</v>
-      </c>
-      <c r="L24">
-        <v>41</v>
-      </c>
-      <c r="M24">
-        <v>41</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="10:17">
-      <c r="J25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K25">
-        <v>0.5774058577405857</v>
-      </c>
-      <c r="L25">
-        <v>138</v>
-      </c>
-      <c r="M25">
-        <v>138</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="10:17">
-      <c r="J26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26">
-        <v>0.5538461538461539</v>
-      </c>
-      <c r="L26">
-        <v>36</v>
-      </c>
-      <c r="M26">
-        <v>36</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="10:17">
-      <c r="J27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K27">
-        <v>0.550561797752809</v>
-      </c>
-      <c r="L27">
-        <v>49</v>
-      </c>
-      <c r="M27">
-        <v>49</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="10:17">
-      <c r="J28" s="1" t="s">
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="L30">
+        <v>30</v>
+      </c>
+      <c r="M30">
+        <v>30</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>48</v>
-      </c>
-      <c r="K28">
-        <v>0.5098039215686274</v>
-      </c>
-      <c r="L28">
-        <v>26</v>
-      </c>
-      <c r="M28">
-        <v>26</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
-      <c r="J29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29">
-        <v>0.3835616438356164</v>
-      </c>
-      <c r="L29">
-        <v>28</v>
-      </c>
-      <c r="M29">
-        <v>28</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
-      <c r="J30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30">
-        <v>0.3461538461538461</v>
-      </c>
-      <c r="L30">
-        <v>27</v>
-      </c>
-      <c r="M30">
-        <v>27</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="10:17">
-      <c r="J31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K31">
-        <v>0.008466603951081843</v>
-      </c>
-      <c r="L31">
-        <v>27</v>
-      </c>
-      <c r="M31">
-        <v>39</v>
-      </c>
-      <c r="N31">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="O31">
-        <v>0.3100000000000001</v>
-      </c>
-      <c r="P31" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q31">
-        <v>3162</v>
       </c>
     </row>
   </sheetData>
